--- a/experiments_results/[2] FracFactDesign_screening_results.xlsx
+++ b/experiments_results/[2] FracFactDesign_screening_results.xlsx
@@ -37,7 +37,7 @@
     <t>ccp_alpha</t>
   </si>
   <si>
-    <t>MSE_1</t>
+    <t>MSE</t>
   </si>
 </sst>
 </file>
@@ -447,13 +447,13 @@
         <v>-1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>232.386</v>
+        <v>171.5248</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -473,16 +473,16 @@
         <v>-1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I3">
-        <v>165.339</v>
+        <v>178.1792</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -499,19 +499,19 @@
         <v>-1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I4">
-        <v>240.344</v>
+        <v>117.5186</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -528,7 +528,7 @@
         <v>-1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -540,7 +540,7 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>193.895</v>
+        <v>118.4816</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,22 +554,22 @@
         <v>-1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>-1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H6">
         <v>-1</v>
       </c>
       <c r="I6">
-        <v>233.245</v>
+        <v>244.7362</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,22 +583,22 @@
         <v>-1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>157.788</v>
+        <v>245.1552</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,22 +612,22 @@
         <v>-1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>241.668</v>
+        <v>244.8062</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,7 +641,7 @@
         <v>-1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>-1</v>
       </c>
       <c r="I9">
-        <v>201.353</v>
+        <v>243.7878</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,10 +667,10 @@
         <v>-1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>-1</v>
@@ -682,10 +682,10 @@
         <v>-1</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I10">
-        <v>232.505</v>
+        <v>220.5684</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>-1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>-1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>158.16</v>
+        <v>218.3874</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,16 +725,16 @@
         <v>-1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>243.382</v>
+        <v>175.304</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,25 +754,25 @@
         <v>-1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I13">
-        <v>181.62</v>
+        <v>172.15</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,13 +783,13 @@
         <v>-1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>-1</v>
@@ -798,10 +798,10 @@
         <v>-1</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>231.301</v>
+        <v>245.019</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,25 +812,25 @@
         <v>-1</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>-1</v>
       </c>
       <c r="I15">
-        <v>161.461</v>
+        <v>245.8544</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -841,7 +841,7 @@
         <v>-1</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>-1</v>
@@ -859,7 +859,7 @@
         <v>-1</v>
       </c>
       <c r="I16">
-        <v>241.781</v>
+        <v>246.8462</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -870,7 +870,7 @@
         <v>-1</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -882,13 +882,13 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>187.894</v>
+        <v>243.961</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -896,10 +896,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>-1</v>
@@ -917,7 +917,7 @@
         <v>-1</v>
       </c>
       <c r="I18">
-        <v>134.836</v>
+        <v>170.8998</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,10 +925,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -937,16 +937,16 @@
         <v>-1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>46.113</v>
+        <v>169.4008</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>-1</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G20">
         <v>-1</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>241.039</v>
+        <v>119.5088</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>-1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>-1</v>
       </c>
       <c r="I21">
-        <v>172.186</v>
+        <v>121.145</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,16 +1012,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>-1</v>
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="I22">
-        <v>169.962</v>
+        <v>245.676</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I23">
-        <v>73.179</v>
+        <v>244.39</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>-1</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I24">
-        <v>240.334</v>
+        <v>243.8056</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,13 +1099,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1114,13 +1114,13 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>182.335</v>
+        <v>245.4</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,13 +1128,13 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>-1</v>
@@ -1143,13 +1143,13 @@
         <v>-1</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>150.727</v>
+        <v>214.4434</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,19 +1157,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>-1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1178,7 +1178,7 @@
         <v>-1</v>
       </c>
       <c r="I27">
-        <v>73.13500000000001</v>
+        <v>216.9248</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H28">
         <v>-1</v>
       </c>
       <c r="I28">
-        <v>241.805</v>
+        <v>176.3382</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,16 +1215,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1233,10 +1233,10 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>178.25</v>
+        <v>171.2186</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,7 +1244,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1253,19 +1253,19 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>-1</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I30">
-        <v>166.517</v>
+        <v>244.256</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,7 +1273,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1282,10 +1282,10 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="I31">
-        <v>79.538</v>
+        <v>244.4582</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,7 +1302,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1314,16 +1314,16 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>240.506</v>
+        <v>244.1938</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,7 +1331,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1349,10 +1349,10 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I33">
-        <v>174.421</v>
+        <v>243.8488</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1363,16 +1363,16 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G34">
         <v>-1</v>
@@ -1381,7 +1381,7 @@
         <v>-1</v>
       </c>
       <c r="I34">
-        <v>184.806</v>
+        <v>175.0392</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1392,25 +1392,25 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F35">
         <v>-1</v>
       </c>
       <c r="G35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>241.396</v>
+        <v>172.666</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1421,10 +1421,10 @@
         <v>1</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E36">
         <v>-1</v>
@@ -1436,10 +1436,10 @@
         <v>-1</v>
       </c>
       <c r="H36">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>77.53700000000001</v>
+        <v>118.2526</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1450,25 +1450,25 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E37">
         <v>-1</v>
       </c>
       <c r="F37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>-1</v>
       </c>
       <c r="I37">
-        <v>170.584</v>
+        <v>119.4162</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1479,7 +1479,7 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D38">
         <v>-1</v>
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G38">
         <v>-1</v>
@@ -1497,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="I38">
-        <v>179.322</v>
+        <v>245.1164</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D39">
         <v>-1</v>
@@ -1520,13 +1520,13 @@
         <v>-1</v>
       </c>
       <c r="G39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I39">
-        <v>240.901</v>
+        <v>243.3692</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1537,13 +1537,13 @@
         <v>1</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D40">
         <v>-1</v>
       </c>
       <c r="E40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1552,10 +1552,10 @@
         <v>-1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I40">
-        <v>73.55800000000001</v>
+        <v>245.6662</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1566,25 +1566,25 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D41">
         <v>-1</v>
       </c>
       <c r="E41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41">
-        <v>147.007</v>
+        <v>244.1126</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1601,19 +1601,19 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H42">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>178.809</v>
+        <v>217.2926</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F43">
         <v>-1</v>
@@ -1642,7 +1642,7 @@
         <v>-1</v>
       </c>
       <c r="I43">
-        <v>241.505</v>
+        <v>214.4742</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1665,13 +1665,13 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H44">
         <v>-1</v>
       </c>
       <c r="I44">
-        <v>66.273</v>
+        <v>173.0744</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1691,16 +1691,16 @@
         <v>-1</v>
       </c>
       <c r="F45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>167.783</v>
+        <v>172.072</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1714,22 +1714,22 @@
         <v>-1</v>
       </c>
       <c r="D46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I46">
-        <v>189.936</v>
+        <v>244.2724</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1743,7 +1743,7 @@
         <v>-1</v>
       </c>
       <c r="D47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1758,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <v>241.878</v>
+        <v>244.8092</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1772,22 +1772,22 @@
         <v>-1</v>
       </c>
       <c r="D48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F48">
         <v>1</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>54.534</v>
+        <v>245.3826</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1801,22 +1801,22 @@
         <v>-1</v>
       </c>
       <c r="D49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I49">
-        <v>117.974</v>
+        <v>244.7886</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1824,28 +1824,28 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H50">
         <v>1</v>
       </c>
       <c r="I50">
-        <v>193.106</v>
+        <v>174.0322</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1853,16 +1853,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F51">
         <v>-1</v>
@@ -1871,10 +1871,10 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I51">
-        <v>241.72</v>
+        <v>172.4754</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1882,13 +1882,13 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E52">
         <v>-1</v>
@@ -1897,13 +1897,13 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I52">
-        <v>159.212</v>
+        <v>120.0002</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -1911,19 +1911,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E53">
         <v>-1</v>
       </c>
       <c r="F53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="I53">
-        <v>231.005</v>
+        <v>120.8094</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -1940,7 +1940,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -1952,16 +1952,16 @@
         <v>1</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H54">
         <v>-1</v>
       </c>
       <c r="I54">
-        <v>190.108</v>
+        <v>244.4734</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -1969,7 +1969,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -1987,10 +1987,10 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>241.572</v>
+        <v>244.6476</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -1998,7 +1998,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2007,19 +2007,19 @@
         <v>-1</v>
       </c>
       <c r="E56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F56">
         <v>1</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H56">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>158.575</v>
+        <v>249.031</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2027,7 +2027,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2036,10 +2036,10 @@
         <v>-1</v>
       </c>
       <c r="E57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2048,7 +2048,7 @@
         <v>-1</v>
       </c>
       <c r="I57">
-        <v>231.014</v>
+        <v>243.8388</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2056,28 +2056,28 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G58">
         <v>-1</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I58">
-        <v>188.033</v>
+        <v>219.6068</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2085,28 +2085,28 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F59">
         <v>-1</v>
       </c>
       <c r="G59">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>240.929</v>
+        <v>213.9824</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2114,10 +2114,10 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="I60">
-        <v>154.271</v>
+        <v>167.466</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2143,10 +2143,10 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -2155,16 +2155,16 @@
         <v>-1</v>
       </c>
       <c r="F61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I61">
-        <v>233.708</v>
+        <v>172.3738</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2172,28 +2172,28 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G62">
         <v>-1</v>
       </c>
       <c r="H62">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>180.509</v>
+        <v>244.7162</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2201,13 +2201,13 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2216,13 +2216,13 @@
         <v>-1</v>
       </c>
       <c r="G63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>-1</v>
       </c>
       <c r="I63">
-        <v>244.275</v>
+        <v>243.8308</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2230,16 +2230,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E64">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2251,7 +2251,7 @@
         <v>-1</v>
       </c>
       <c r="I64">
-        <v>169.255</v>
+        <v>244.5848</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2259,28 +2259,28 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>232.309</v>
+        <v>246.526</v>
       </c>
     </row>
   </sheetData>
